--- a/Cinta.xlsx
+++ b/Cinta.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc947767ebb0dc92/Documentos/GitHub/WorkShopDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{9B9A7645-F75A-451A-968B-3FFE4F5649BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A9A357B1-9F38-44A8-9199-B3D4DA514A2F}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{9B9A7645-F75A-451A-968B-3FFE4F5649BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A7AE55A-D003-4BB7-848D-DB73885E77F9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E4FC4F7-F84C-4971-B424-D98ABB4FF5D4}"/>
+    <workbookView xWindow="1164" yWindow="1668" windowWidth="19236" windowHeight="9720" activeTab="2" xr2:uid="{6E4FC4F7-F84C-4971-B424-D98ABB4FF5D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="RECIBOSD" sheetId="1" r:id="rId1"/>
+    <sheet name="RECIBOS" sheetId="2" r:id="rId2"/>
+    <sheet name="OPEREC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>CERTIFICADO</t>
   </si>
@@ -58,6 +60,36 @@
   </si>
   <si>
     <t>HOG</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>COBRADO</t>
+  </si>
+  <si>
+    <t>PEND</t>
+  </si>
+  <si>
+    <t>CERT</t>
+  </si>
+  <si>
+    <t>OPE</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>COB</t>
+  </si>
+  <si>
+    <t>ANU</t>
+  </si>
+  <si>
+    <t>FEMIREC</t>
   </si>
 </sst>
 </file>
@@ -101,10 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D57C85-CCD6-4D16-89AE-A69F18C329FE}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,4 +605,371 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAC1889-8CA4-4152-B77F-A66E42E31586}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43469</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43513</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43468</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43513</v>
+      </c>
+      <c r="G3">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43499</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43513</v>
+      </c>
+      <c r="G4">
+        <v>444</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>543</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43510</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43513</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43506</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43513</v>
+      </c>
+      <c r="G6">
+        <v>12.8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E399EA89-33C5-44BB-96D6-086A93E135B7}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43467</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43811</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43480</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43829</v>
+      </c>
+      <c r="F4">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43499</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43499</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43506</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43470</v>
+      </c>
+      <c r="F6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43516</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43475</v>
+      </c>
+      <c r="F7">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43511</v>
+      </c>
+      <c r="F8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43506</v>
+      </c>
+      <c r="F9">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>